--- a/data/trans_orig/P36B13-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>292873</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262881</v>
+        <v>264405</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>323497</v>
+        <v>322862</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2610412528715856</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2343087710167068</v>
+        <v>0.2356678579188596</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2883367530593979</v>
+        <v>0.2877708724096132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>392</v>
@@ -763,19 +763,19 @@
         <v>436078</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>403770</v>
+        <v>403385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>470785</v>
+        <v>472726</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3475027421155514</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3217568177797619</v>
+        <v>0.3214505313161655</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3751604603447214</v>
+        <v>0.3767065886930573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>679</v>
@@ -784,19 +784,19 @@
         <v>728951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>685437</v>
+        <v>683112</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>773698</v>
+        <v>772964</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3066901457856402</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2883825771426885</v>
+        <v>0.2874043505235446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3255164050368732</v>
+        <v>0.3252077186309009</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>341538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310918</v>
+        <v>313421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>373746</v>
+        <v>371130</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3044166957532854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2771248928917286</v>
+        <v>0.2793556728959305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3331243407250513</v>
+        <v>0.3307930472090955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>373</v>
@@ -834,19 +834,19 @@
         <v>391001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>358080</v>
+        <v>360846</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>424150</v>
+        <v>426472</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.311581815715908</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.28534769382208</v>
+        <v>0.2875514663782811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.337997530515911</v>
+        <v>0.3398476255744035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>691</v>
@@ -855,19 +855,19 @@
         <v>732539</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>692202</v>
+        <v>690511</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>780880</v>
+        <v>778781</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3081996492595245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2912286556183953</v>
+        <v>0.2905173213250631</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3285382602139368</v>
+        <v>0.3276552315940973</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>324573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>292887</v>
+        <v>295535</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>353235</v>
+        <v>355580</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.289296261004249</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2610535062452189</v>
+        <v>0.2634142226546707</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3148430363647899</v>
+        <v>0.3169331918455497</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>340</v>
@@ -905,19 +905,19 @@
         <v>347234</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>313424</v>
+        <v>316374</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>381357</v>
+        <v>379799</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.276704772614927</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2497620970666609</v>
+        <v>0.2521127912323987</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3038966923901806</v>
+        <v>0.3026552945187658</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>641</v>
@@ -926,19 +926,19 @@
         <v>671808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>626070</v>
+        <v>630108</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>713503</v>
+        <v>715162</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.282648359029176</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2634052682556448</v>
+        <v>0.2651039387199647</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3001908549682747</v>
+        <v>0.3008888774860257</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>144145</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120573</v>
+        <v>121518</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>166712</v>
+        <v>167135</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1284780280114416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1074685152380693</v>
+        <v>0.1083102976923808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1485923584329954</v>
+        <v>0.1489698176357731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -976,19 +976,19 @@
         <v>72557</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57109</v>
+        <v>56813</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90417</v>
+        <v>88867</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05781902592658191</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04550936393426136</v>
+        <v>0.04527301076496859</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07205172449601839</v>
+        <v>0.07081643766447519</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>208</v>
@@ -997,19 +997,19 @@
         <v>216701</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>189695</v>
+        <v>190093</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>245020</v>
+        <v>245092</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09117234142438312</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07981001220600278</v>
+        <v>0.0799774961316059</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1030867294121266</v>
+        <v>0.1031169779338063</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>18812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11540</v>
+        <v>10996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30630</v>
+        <v>28449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01676776235943831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0102856009603031</v>
+        <v>0.009801026302865657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02730074657492475</v>
+        <v>0.0253567599097908</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1047,19 +1047,19 @@
         <v>8021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3910</v>
+        <v>3093</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15505</v>
+        <v>15354</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006391643627031612</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003115527303551381</v>
+        <v>0.00246462364124427</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01235580635514251</v>
+        <v>0.01223555234770848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1068,19 +1068,19 @@
         <v>26833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17872</v>
+        <v>18704</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37611</v>
+        <v>38086</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01128950450127627</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007519378592739994</v>
+        <v>0.007869135857444419</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01582414269431145</v>
+        <v>0.01602384113044831</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>259943</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>231324</v>
+        <v>232960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>285810</v>
+        <v>290813</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2875325081597288</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2558757642691207</v>
+        <v>0.2576850734724636</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3161444714257439</v>
+        <v>0.3216784615837735</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>308</v>
@@ -1193,19 +1193,19 @@
         <v>344260</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>310240</v>
+        <v>312692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>374394</v>
+        <v>375468</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3453917283742014</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3112598933232049</v>
+        <v>0.3137203434038244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3756253544395647</v>
+        <v>0.3767019930090407</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>562</v>
@@ -1214,19 +1214,19 @@
         <v>604203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>567036</v>
+        <v>563626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>644212</v>
+        <v>644784</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3178726234588312</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2983189108533621</v>
+        <v>0.2965247105229732</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3389215210139148</v>
+        <v>0.339222465917108</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>264459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>235552</v>
+        <v>238990</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>290567</v>
+        <v>291922</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2925279429207484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2605519853177751</v>
+        <v>0.26435518844592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3214060844045407</v>
+        <v>0.3229056195952609</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -1264,19 +1264,19 @@
         <v>318681</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>288923</v>
+        <v>289944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>348531</v>
+        <v>349650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3197285429536667</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2898724435326241</v>
+        <v>0.2908969853805598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3496770516963402</v>
+        <v>0.3508000123986851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>557</v>
@@ -1285,19 +1285,19 @@
         <v>583140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>543114</v>
+        <v>542884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>622180</v>
+        <v>621975</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3067913453334391</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2857337191168341</v>
+        <v>0.2856127135835622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3273302361966515</v>
+        <v>0.3272224342066597</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>278110</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>253855</v>
+        <v>248411</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>308721</v>
+        <v>303102</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3076277221526821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2807979240621409</v>
+        <v>0.2747763699333839</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3414874963375152</v>
+        <v>0.3352723334862792</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>253</v>
@@ -1335,19 +1335,19 @@
         <v>254697</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>226244</v>
+        <v>229053</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>281500</v>
+        <v>285079</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2555344469495977</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2269873600694674</v>
+        <v>0.2298060349312456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2824257793642911</v>
+        <v>0.2860163705044724</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>520</v>
@@ -1356,19 +1356,19 @@
         <v>532807</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>497099</v>
+        <v>494087</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>570703</v>
+        <v>573307</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2803111428743787</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2615250400093765</v>
+        <v>0.2599404752610036</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3002482402085856</v>
+        <v>0.3016180890944101</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>88742</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73288</v>
+        <v>72779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106074</v>
+        <v>107390</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0981607379051737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08106616478483479</v>
+        <v>0.08050325816145479</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1173319773284448</v>
+        <v>0.1187874374169478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -1406,19 +1406,19 @@
         <v>70337</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54690</v>
+        <v>55073</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88913</v>
+        <v>87887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07056812149396885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05486932070564591</v>
+        <v>0.0552540453699424</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08920575121601874</v>
+        <v>0.08817621370412485</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -1427,19 +1427,19 @@
         <v>159079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135683</v>
+        <v>134894</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182646</v>
+        <v>183572</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08369177063916729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07138334807002046</v>
+        <v>0.07096799270068142</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.096090259501034</v>
+        <v>0.09657767524436005</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>12793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6851</v>
+        <v>6921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21340</v>
+        <v>21759</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01415108886166696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007578673861115032</v>
+        <v>0.007656067831282175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0236053089572899</v>
+        <v>0.0240680474688255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1477,19 +1477,19 @@
         <v>8748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4571</v>
+        <v>4002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15872</v>
+        <v>15760</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008777160228565331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004586365702976144</v>
+        <v>0.004014741477263869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01592375213593807</v>
+        <v>0.01581173429004976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1498,19 +1498,19 @@
         <v>21542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13542</v>
+        <v>13367</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31283</v>
+        <v>30927</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01133311769418365</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00712460455695492</v>
+        <v>0.007032628358395811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.016458294802257</v>
+        <v>0.01627101173424458</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>220876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>195872</v>
+        <v>195500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>246280</v>
+        <v>248118</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2702693759777947</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.239674267536169</v>
+        <v>0.239218392960658</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3013550484609976</v>
+        <v>0.3036035295002528</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>223</v>
@@ -1623,19 +1623,19 @@
         <v>252053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>224363</v>
+        <v>224956</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>279045</v>
+        <v>279820</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3283783744419406</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.292303046356276</v>
+        <v>0.2930755129528533</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3635437247350956</v>
+        <v>0.3645541815024199</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>438</v>
@@ -1644,19 +1644,19 @@
         <v>472929</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>438982</v>
+        <v>433840</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>512294</v>
+        <v>511608</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2984131961098295</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2769930269111323</v>
+        <v>0.2737484832875399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3232520974611323</v>
+        <v>0.3228193201701066</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>233846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206299</v>
+        <v>208426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>261958</v>
+        <v>259224</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2861399325536458</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.252433383482098</v>
+        <v>0.2550351025221195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3205392203959896</v>
+        <v>0.3171937174289305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -1694,19 +1694,19 @@
         <v>218255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192450</v>
+        <v>193199</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>244831</v>
+        <v>240074</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.284346104151265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2507260559920492</v>
+        <v>0.2517029894697723</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3189688590261149</v>
+        <v>0.3127722136394602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>437</v>
@@ -1715,19 +1715,19 @@
         <v>452101</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>418031</v>
+        <v>416010</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>489920</v>
+        <v>490144</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2852711310730027</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.263773191191866</v>
+        <v>0.2624977119012147</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3091345545048058</v>
+        <v>0.3092756826688352</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>266160</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>240346</v>
+        <v>238624</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>293645</v>
+        <v>292720</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3256805411484469</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2940936752249039</v>
+        <v>0.2919860951361308</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3593120673742213</v>
+        <v>0.3581802015870349</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>215</v>
@@ -1765,19 +1765,19 @@
         <v>221410</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>196416</v>
+        <v>198172</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>246566</v>
+        <v>249642</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2884564560816841</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2558940311595769</v>
+        <v>0.2581814832601714</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.321229940128453</v>
+        <v>0.3252376908348337</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>465</v>
@@ -1786,19 +1786,19 @@
         <v>487570</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>450623</v>
+        <v>451729</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>523306</v>
+        <v>523054</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3076518711939142</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2843385996544275</v>
+        <v>0.2850360316813176</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3302005341477792</v>
+        <v>0.330041661328647</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>91271</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74562</v>
+        <v>74532</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>111190</v>
+        <v>110632</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1116819464149761</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09123609036238266</v>
+        <v>0.09119984978310884</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1360548100185379</v>
+        <v>0.1353724094853233</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -1836,19 +1836,19 @@
         <v>73934</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58933</v>
+        <v>59277</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91213</v>
+        <v>91190</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09632256979003463</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0767789656065832</v>
+        <v>0.077227290602449</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1188339558362121</v>
+        <v>0.118803746716959</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>160</v>
@@ -1857,19 +1857,19 @@
         <v>165206</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>141247</v>
+        <v>141050</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190545</v>
+        <v>191475</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1042429688986238</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08912569594686579</v>
+        <v>0.08900114139999758</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.120231663485326</v>
+        <v>0.1208187628417473</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>5090</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2022</v>
+        <v>1970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10940</v>
+        <v>11115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006228203905136467</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002473665944599707</v>
+        <v>0.002410571159028347</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01338630316228702</v>
+        <v>0.01360088101713637</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7640</v>
+        <v>6819</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002496495535075673</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009953919157106944</v>
+        <v>0.008883797591689892</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1928,19 +1928,19 @@
         <v>7006</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2941</v>
+        <v>3047</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13284</v>
+        <v>13095</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00442083272462986</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001855518484460817</v>
+        <v>0.001922485508378583</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008382112440579155</v>
+        <v>0.008263037742902999</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>167687</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146770</v>
+        <v>146846</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>188879</v>
+        <v>189567</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3330665404093279</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2915206842611595</v>
+        <v>0.2916708536978947</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.375158771403087</v>
+        <v>0.3765240326085969</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -2053,19 +2053,19 @@
         <v>171618</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148089</v>
+        <v>151905</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194615</v>
+        <v>194796</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3544265150111783</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3058349666416174</v>
+        <v>0.3137157064454357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.401919213719318</v>
+        <v>0.402294019625876</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>308</v>
@@ -2074,19 +2074,19 @@
         <v>339305</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>307376</v>
+        <v>308714</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>369869</v>
+        <v>371273</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3435383494941167</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3112112223063455</v>
+        <v>0.3125659362370837</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3744837687246159</v>
+        <v>0.3759052815940432</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>142774</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>120549</v>
+        <v>121984</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>163252</v>
+        <v>165459</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2835826164692045</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2394378640969946</v>
+        <v>0.2422880217583252</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3242566394289904</v>
+        <v>0.3286413711968042</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>142</v>
@@ -2124,19 +2124,19 @@
         <v>153441</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>132172</v>
+        <v>133575</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>174315</v>
+        <v>174856</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3168883221804265</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2729620355688142</v>
+        <v>0.2758604459672972</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3599970775042003</v>
+        <v>0.3611136574112374</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>272</v>
@@ -2145,19 +2145,19 @@
         <v>296215</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>264813</v>
+        <v>267797</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>323182</v>
+        <v>327575</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2999108658301313</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2681165124375907</v>
+        <v>0.2711383254269971</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3272142453272536</v>
+        <v>0.3316621149373236</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>136885</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>117961</v>
+        <v>117334</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>156641</v>
+        <v>157096</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2718853249137479</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2342982637563748</v>
+        <v>0.2330532054684489</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3111257605985245</v>
+        <v>0.3120304767178412</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>121</v>
@@ -2195,19 +2195,19 @@
         <v>122647</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>103844</v>
+        <v>103693</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>142910</v>
+        <v>142150</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2532913337189639</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2144587914209561</v>
+        <v>0.2141466474150129</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2951377488314864</v>
+        <v>0.2935699816420736</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>248</v>
@@ -2216,19 +2216,19 @@
         <v>259532</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>235141</v>
+        <v>233002</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>291198</v>
+        <v>288590</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2627695497527066</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2380741978565853</v>
+        <v>0.2359083978440404</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2948310233053637</v>
+        <v>0.2921901451816493</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>46236</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35203</v>
+        <v>34741</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60574</v>
+        <v>60463</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09183524207714508</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06992116542967228</v>
+        <v>0.0690030092936909</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1203138775124461</v>
+        <v>0.1200929166724525</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2266,19 +2266,19 @@
         <v>29404</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20355</v>
+        <v>19328</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40907</v>
+        <v>40219</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06072543136968894</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04203822116156373</v>
+        <v>0.03991631119120548</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0844816085616944</v>
+        <v>0.08306106699477017</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -2287,19 +2287,19 @@
         <v>75640</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61082</v>
+        <v>61585</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93246</v>
+        <v>94063</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0765835386240812</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06184441756493903</v>
+        <v>0.06235322313058081</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09440943443366435</v>
+        <v>0.09523661257187736</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>9883</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5078</v>
+        <v>5062</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19935</v>
+        <v>18422</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01963027613057451</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0100858205931211</v>
+        <v>0.01005454083301099</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03959536606804175</v>
+        <v>0.03658991492626559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2337,19 +2337,19 @@
         <v>7103</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2762</v>
+        <v>2791</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14257</v>
+        <v>14181</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01466839771974247</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005703736155652012</v>
+        <v>0.005763203333705819</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0294443824380999</v>
+        <v>0.02928615632894804</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2358,19 +2358,19 @@
         <v>16986</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10089</v>
+        <v>10074</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27440</v>
+        <v>27947</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01719769629896427</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01021444912714258</v>
+        <v>0.01019920736683464</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02778207758604383</v>
+        <v>0.02829611834701555</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>941379</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>891730</v>
+        <v>887510</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>990661</v>
+        <v>996498</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2812860486938812</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2664507606020978</v>
+        <v>0.2651897310291081</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2960115497007337</v>
+        <v>0.2977556644414759</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1074</v>
@@ -2483,19 +2483,19 @@
         <v>1204009</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1148482</v>
+        <v>1150309</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1266286</v>
+        <v>1262345</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3436690940054882</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3278194959799882</v>
+        <v>0.3283411948092928</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3614452531103255</v>
+        <v>0.3603205207959949</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1987</v>
@@ -2504,19 +2504,19 @@
         <v>2145388</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2071398</v>
+        <v>2071173</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2228281</v>
+        <v>2220021</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3131910903470677</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3023897297984648</v>
+        <v>0.3023569532009011</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3252921085622197</v>
+        <v>0.3240863238823228</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>982617</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>931348</v>
+        <v>928853</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1035168</v>
+        <v>1041052</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2936078923881482</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2782888538097189</v>
+        <v>0.2775432560405366</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3093102635671307</v>
+        <v>0.3110683537306431</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1031</v>
@@ -2554,19 +2554,19 @@
         <v>1081379</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1025369</v>
+        <v>1026872</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1135089</v>
+        <v>1131951</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3086658504788152</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2926784858674222</v>
+        <v>0.293107612395466</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3239967828638599</v>
+        <v>0.3231011542923902</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1957</v>
@@ -2575,19 +2575,19 @@
         <v>2063995</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1992556</v>
+        <v>1990312</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2144478</v>
+        <v>2136617</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3013090999469475</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2908801569639798</v>
+        <v>0.2905525343500092</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3130582158461243</v>
+        <v>0.3119106842408724</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>1005728</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>954019</v>
+        <v>950152</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1061347</v>
+        <v>1060298</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3005137448975353</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2850627175705512</v>
+        <v>0.2839073843387639</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3171326056760869</v>
+        <v>0.316819166535066</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>929</v>
@@ -2625,19 +2625,19 @@
         <v>945989</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>893745</v>
+        <v>891467</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1000723</v>
+        <v>997140</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2700204562561924</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2551081362184684</v>
+        <v>0.2544579345519739</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2856437810814775</v>
+        <v>0.2846209468336682</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1874</v>
@@ -2646,19 +2646,19 @@
         <v>1951717</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1880707</v>
+        <v>1881572</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2031759</v>
+        <v>2029596</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2849183272742846</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2745520446737589</v>
+        <v>0.2746783677211762</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2966030641527412</v>
+        <v>0.2962873299774754</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>370394</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>336035</v>
+        <v>334413</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>407719</v>
+        <v>407342</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1106744669948328</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1004080016700129</v>
+        <v>0.09992340246089131</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.121827175650156</v>
+        <v>0.121714749387829</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>243</v>
@@ -2696,19 +2696,19 @@
         <v>246232</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>216279</v>
+        <v>216641</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>277729</v>
+        <v>277144</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07028372036503948</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06173419790080659</v>
+        <v>0.06183744357254618</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07927427955262009</v>
+        <v>0.07910718862691994</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>601</v>
@@ -2717,19 +2717,19 @@
         <v>616626</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>564889</v>
+        <v>569730</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>662915</v>
+        <v>662347</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09001711615231012</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08246447677623969</v>
+        <v>0.08317109547553994</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09677458343621827</v>
+        <v>0.09669172155566887</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>46579</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>33613</v>
+        <v>34660</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61872</v>
+        <v>60911</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01391784702560255</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01004375962149506</v>
+        <v>0.01035646825496735</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0184875702603032</v>
+        <v>0.0182002414978584</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -2767,19 +2767,19 @@
         <v>25788</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16438</v>
+        <v>16670</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36201</v>
+        <v>37553</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007360878894464678</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004692158393023583</v>
+        <v>0.004758287914003155</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0103331811843051</v>
+        <v>0.01071916124287519</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>71</v>
@@ -2788,19 +2788,19 @@
         <v>72367</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>56593</v>
+        <v>56632</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>90000</v>
+        <v>90233</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01056436627939015</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008261686253497474</v>
+        <v>0.008267397660780686</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01313855524987108</v>
+        <v>0.01317250926642477</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>114784</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97703</v>
+        <v>95559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134032</v>
+        <v>133825</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2301489160241633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1958993369583683</v>
+        <v>0.1916004507933683</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2687418481802927</v>
+        <v>0.2683270424104695</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>332</v>
@@ -3153,19 +3153,19 @@
         <v>201856</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>183601</v>
+        <v>182151</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>221563</v>
+        <v>223573</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.324285996829501</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2949595994419347</v>
+        <v>0.2926294453385935</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3559453809474983</v>
+        <v>0.3591750235266032</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>459</v>
@@ -3174,19 +3174,19 @@
         <v>316640</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>290975</v>
+        <v>289442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>348343</v>
+        <v>348599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.282411408145305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2595206214675755</v>
+        <v>0.2581530676166824</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3106871183975393</v>
+        <v>0.3109153982335143</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>162290</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141303</v>
+        <v>140849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>184649</v>
+        <v>189117</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3254013126807172</v>
+        <v>0.3254013126807171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2833207321790649</v>
+        <v>0.2824098063000147</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3702320971730335</v>
+        <v>0.379190734290437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -3224,19 +3224,19 @@
         <v>223161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>203613</v>
+        <v>199497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245816</v>
+        <v>244777</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.358513052614521</v>
+        <v>0.3585130526145211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3271090025135366</v>
+        <v>0.3204964178996906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3949089132837293</v>
+        <v>0.3932399822562235</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>450</v>
@@ -3245,19 +3245,19 @@
         <v>385451</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>353725</v>
+        <v>353918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>417302</v>
+        <v>416745</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3437841011908703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3154871477881361</v>
+        <v>0.3156592505502012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3721915526728294</v>
+        <v>0.3716945492113077</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>144730</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121719</v>
+        <v>121600</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>167423</v>
+        <v>169455</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2901924358258993</v>
+        <v>0.2901924358258992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2440539485307116</v>
+        <v>0.2438156749799611</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3356926492538165</v>
+        <v>0.3397675204581548</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>197</v>
@@ -3295,19 +3295,19 @@
         <v>168753</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>147818</v>
+        <v>147723</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>191505</v>
+        <v>193568</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2711047944063851</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2374727662568869</v>
+        <v>0.2373200597146105</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.307657494557412</v>
+        <v>0.3109706973815681</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>312</v>
@@ -3316,19 +3316,19 @@
         <v>313483</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>282837</v>
+        <v>280420</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>343265</v>
+        <v>346537</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2795954670144128</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2522620525481504</v>
+        <v>0.25010697358512</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3061578899717095</v>
+        <v>0.3090765936226831</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>64288</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47681</v>
+        <v>47491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84665</v>
+        <v>84522</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1289016685851424</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09560351446147664</v>
+        <v>0.09522269897644436</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1697589051449291</v>
+        <v>0.1694712856163545</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -3366,19 +3366,19 @@
         <v>26604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18654</v>
+        <v>19006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36969</v>
+        <v>37100</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04274033561235683</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02996863451742766</v>
+        <v>0.0305331880665187</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05939081119568769</v>
+        <v>0.05960120980797291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -3387,19 +3387,19 @@
         <v>90893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71720</v>
+        <v>71118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115280</v>
+        <v>112506</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0810671070381484</v>
+        <v>0.08106710703814841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06396692113663714</v>
+        <v>0.06343030719281148</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1028185670101601</v>
+        <v>0.1003442041153628</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>12646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6216</v>
+        <v>6706</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24875</v>
+        <v>25563</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0253556668840779</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01246365333435132</v>
+        <v>0.01344557827815189</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04987489308129695</v>
+        <v>0.05125462848164666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3437,19 +3437,19 @@
         <v>2089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5604</v>
+        <v>5606</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003355820537236051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001055941868406257</v>
+        <v>0.001071891260935728</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009003253211259893</v>
+        <v>0.009006142799857376</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -3458,19 +3458,19 @@
         <v>14735</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7014</v>
+        <v>7452</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26376</v>
+        <v>24972</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01314191661126344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006255985284061946</v>
+        <v>0.006646360652043733</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02352473201111661</v>
+        <v>0.02227232499872673</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>208581</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183237</v>
+        <v>184420</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>234970</v>
+        <v>235370</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2174370740246587</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1910170247898403</v>
+        <v>0.1922494629954842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2449458167964844</v>
+        <v>0.2453633829193546</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>648</v>
@@ -3583,19 +3583,19 @@
         <v>375394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>348179</v>
+        <v>346054</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>401493</v>
+        <v>400558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3370283127717121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3125946924457535</v>
+        <v>0.3106865104424949</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3604596427762521</v>
+        <v>0.3596209556508532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>909</v>
@@ -3604,19 +3604,19 @@
         <v>583975</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>545232</v>
+        <v>547781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>621581</v>
+        <v>624271</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2816908442979115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.263002453161337</v>
+        <v>0.2642317983313893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2998305577423776</v>
+        <v>0.3011284371377579</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>356341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>324572</v>
+        <v>323536</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>392099</v>
+        <v>390061</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3714703785910664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3383525916046567</v>
+        <v>0.3372727609184817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4087463925148756</v>
+        <v>0.4066218698003541</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>560</v>
@@ -3654,19 +3654,19 @@
         <v>402105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>372844</v>
+        <v>373918</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>429708</v>
+        <v>429914</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3610098168508952</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3347392209969656</v>
+        <v>0.3357035300573752</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3857911551481547</v>
+        <v>0.3859767739712328</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>892</v>
@@ -3675,19 +3675,19 @@
         <v>758446</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>718595</v>
+        <v>710307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>802013</v>
+        <v>798755</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.365850146389912</v>
+        <v>0.3658501463899119</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3466270928073962</v>
+        <v>0.3426290635592495</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3868653522867099</v>
+        <v>0.3852936219061359</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>325898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>294055</v>
+        <v>289926</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>358614</v>
+        <v>361853</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3397350647616639</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3065402693595157</v>
+        <v>0.3022350685286647</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3738400784948623</v>
+        <v>0.3772161217764337</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>344</v>
@@ -3725,19 +3725,19 @@
         <v>290091</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>261703</v>
+        <v>262286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>315611</v>
+        <v>318222</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.260443720360517</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2349569671206541</v>
+        <v>0.2354805362272059</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2833554128613549</v>
+        <v>0.2856991450141851</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>606</v>
@@ -3746,19 +3746,19 @@
         <v>615990</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>571658</v>
+        <v>572543</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>656742</v>
+        <v>665752</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2971335507947037</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2757493111301513</v>
+        <v>0.2761764400360701</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3167911182457867</v>
+        <v>0.3211375348750753</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>65112</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47460</v>
+        <v>47846</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85957</v>
+        <v>88050</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06787626792196101</v>
+        <v>0.06787626792196103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04947491080016461</v>
+        <v>0.04987698413026544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0896060777288953</v>
+        <v>0.09178878267245325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -3796,19 +3796,19 @@
         <v>44641</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32731</v>
+        <v>32504</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61196</v>
+        <v>58554</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04007872865547437</v>
+        <v>0.04007872865547436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02938583748699454</v>
+        <v>0.02918242068594272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05494132494278018</v>
+        <v>0.05256929038432856</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -3817,19 +3817,19 @@
         <v>109753</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88604</v>
+        <v>87160</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133897</v>
+        <v>132716</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05294125494857491</v>
+        <v>0.0529412549485749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04273952201473836</v>
+        <v>0.04204340714566528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06458779616411107</v>
+        <v>0.06401791911013124</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>3339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9614</v>
+        <v>9027</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003481214700650135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.000929731717938497</v>
+        <v>0.0009143011914917405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01002207058179667</v>
+        <v>0.009410741981140669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5215</v>
+        <v>5755</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001439421361401203</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.004682062799569293</v>
+        <v>0.005166536248338024</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -3888,19 +3888,19 @@
         <v>4943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1616</v>
+        <v>1769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10859</v>
+        <v>12265</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002384203568897884</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0007793582388709504</v>
+        <v>0.000853377452460972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005238024919581217</v>
+        <v>0.005916422577971588</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>301053</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>272322</v>
+        <v>272168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>333816</v>
+        <v>333170</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2878362151677314</v>
+        <v>0.2878362151677313</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2603661891094193</v>
+        <v>0.2602193153628911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3191607619782673</v>
+        <v>0.3185431331351501</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>609</v>
@@ -4013,19 +4013,19 @@
         <v>370277</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>343200</v>
+        <v>343640</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>395715</v>
+        <v>395628</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3543502048171183</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3284377859246955</v>
+        <v>0.3288590248449031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3786935343623101</v>
+        <v>0.3786101439816854</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>965</v>
@@ -4034,19 +4034,19 @@
         <v>671331</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>628839</v>
+        <v>635358</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>708363</v>
+        <v>715390</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3210777495028532</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.300755111887008</v>
+        <v>0.3038729073115531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3387893322211762</v>
+        <v>0.3421498103308267</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>425622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>390417</v>
+        <v>393312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>460631</v>
+        <v>462193</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.406935747938893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3732767937263463</v>
+        <v>0.3760448800936744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4404077216319695</v>
+        <v>0.4419015557379073</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>622</v>
@@ -4084,19 +4084,19 @@
         <v>434699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>405832</v>
+        <v>408868</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>460945</v>
+        <v>464759</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4160005520133196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3883753647200791</v>
+        <v>0.3912813290464826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4411185271160852</v>
+        <v>0.4447678238545991</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1030</v>
@@ -4105,19 +4105,19 @@
         <v>860321</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>812425</v>
+        <v>818559</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>906360</v>
+        <v>905907</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4114660429560704</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3885591033576773</v>
+        <v>0.3914926174351233</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4334852826405964</v>
+        <v>0.4332684758170097</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>245528</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>216721</v>
+        <v>213771</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278987</v>
+        <v>274578</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2347482934087951</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2072066079243355</v>
+        <v>0.2043853695569328</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2667384190395342</v>
+        <v>0.2625232392983716</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>245</v>
@@ -4155,19 +4155,19 @@
         <v>205522</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>181938</v>
+        <v>182504</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>230558</v>
+        <v>230312</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1966819536496209</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1741120190197268</v>
+        <v>0.1746534028866061</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2206406416636975</v>
+        <v>0.2204055361549819</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>457</v>
@@ -4176,19 +4176,19 @@
         <v>451050</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>413989</v>
+        <v>413379</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>491100</v>
+        <v>491517</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2157239716565265</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1979988561859415</v>
+        <v>0.1977071831138024</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2348785904195765</v>
+        <v>0.2350779293641208</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>62181</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44895</v>
+        <v>45389</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84762</v>
+        <v>84126</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0594508344741447</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04292388131571746</v>
+        <v>0.04339607400946295</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08104053455169893</v>
+        <v>0.08043223220511825</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -4226,19 +4226,19 @@
         <v>33429</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22479</v>
+        <v>23352</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47037</v>
+        <v>48315</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03199143313068246</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02151232267453991</v>
+        <v>0.02234764629821866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04501419548096119</v>
+        <v>0.046237161296073</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -4247,19 +4247,19 @@
         <v>95610</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75639</v>
+        <v>74197</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>119907</v>
+        <v>121591</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04572751645650414</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03617574861217483</v>
+        <v>0.03548632619065857</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05734800943476156</v>
+        <v>0.05815317234523561</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>11535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4815</v>
+        <v>4573</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22614</v>
+        <v>22726</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0110289090104358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004603693858490803</v>
+        <v>0.004372202069221083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02162093805015064</v>
+        <v>0.02172821149850134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5067</v>
+        <v>5121</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0009758563892585993</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.004849354037944758</v>
+        <v>0.004900438933003798</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -4318,19 +4318,19 @@
         <v>12555</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6375</v>
+        <v>6207</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26845</v>
+        <v>25044</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00600471942804577</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003049011296872646</v>
+        <v>0.002968445188142653</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0128393029045658</v>
+        <v>0.01197786588353671</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>277472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>248394</v>
+        <v>250015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>305788</v>
+        <v>307540</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2848407206734099</v>
+        <v>0.28484072067341</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2549911039492785</v>
+        <v>0.2566550760547129</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3139089985037009</v>
+        <v>0.3157074339466506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>485</v>
@@ -4443,19 +4443,19 @@
         <v>314691</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>290110</v>
+        <v>290826</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>339495</v>
+        <v>339381</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3478112071087789</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3206425452385849</v>
+        <v>0.3214337845013177</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3752255638655689</v>
+        <v>0.3750991089661404</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>802</v>
@@ -4464,19 +4464,19 @@
         <v>592163</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>555097</v>
+        <v>555060</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>631072</v>
+        <v>632474</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3151638053192512</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.295436261761338</v>
+        <v>0.2954166649484108</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3358724639402947</v>
+        <v>0.3366182605657176</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>425094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>390953</v>
+        <v>388517</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>460020</v>
+        <v>456946</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4363839365073507</v>
+        <v>0.4363839365073508</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4013363674761392</v>
+        <v>0.3988350827506594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4722376763172348</v>
+        <v>0.4690814990072599</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>585</v>
@@ -4514,19 +4514,19 @@
         <v>388463</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>362986</v>
+        <v>361780</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>416921</v>
+        <v>414684</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4293471677010525</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4011890008842571</v>
+        <v>0.3998557822872272</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4608002983487929</v>
+        <v>0.4583274551606698</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>996</v>
@@ -4535,19 +4535,19 @@
         <v>813557</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>770553</v>
+        <v>770554</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>857925</v>
+        <v>855322</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4329954199462536</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4101072711764452</v>
+        <v>0.4101082448283641</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4566091327172625</v>
+        <v>0.4552236738145368</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>229603</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>196973</v>
+        <v>200411</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>260711</v>
+        <v>262534</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2357008714081411</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2022041909938933</v>
+        <v>0.2057335499172503</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2676348921600639</v>
+        <v>0.2695060963151875</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>214</v>
@@ -4585,19 +4585,19 @@
         <v>168755</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>146106</v>
+        <v>147121</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>193294</v>
+        <v>191159</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1865153503487532</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1614829967742629</v>
+        <v>0.1626047433081366</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2136371876489014</v>
+        <v>0.2112773958419037</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>399</v>
@@ -4606,19 +4606,19 @@
         <v>398358</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>357453</v>
+        <v>363303</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>438671</v>
+        <v>443235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2120158595420756</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1902451197855983</v>
+        <v>0.1933590337728166</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2334714377589875</v>
+        <v>0.2359009437506485</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>34183</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22719</v>
+        <v>22323</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52600</v>
+        <v>53370</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03509124029222031</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02332271987090593</v>
+        <v>0.02291600546447847</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05399727079723619</v>
+        <v>0.05478780143798725</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -4656,19 +4656,19 @@
         <v>24896</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16453</v>
+        <v>16050</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37744</v>
+        <v>38804</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02751604619278744</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01818411687890479</v>
+        <v>0.01773891740593049</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04171685037965613</v>
+        <v>0.04288828572097426</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -4677,19 +4677,19 @@
         <v>59079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42718</v>
+        <v>42643</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78624</v>
+        <v>80501</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03144344805034933</v>
+        <v>0.03144344805034934</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02273565743790604</v>
+        <v>0.02269576117696838</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04184562016301506</v>
+        <v>0.04284470782662187</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>7777</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3415</v>
+        <v>3140</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16127</v>
+        <v>14579</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.007983231118877892</v>
+        <v>0.007983231118877894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003506181775890711</v>
+        <v>0.0032235131829328</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01655533035170673</v>
+        <v>0.01496614370910294</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -4727,19 +4727,19 @@
         <v>7971</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2895</v>
+        <v>3101</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18884</v>
+        <v>17333</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.00881022864862783</v>
+        <v>0.008810228648627832</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003199994046085529</v>
+        <v>0.003427761596564666</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02087165430420854</v>
+        <v>0.01915729263599952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -4748,19 +4748,19 @@
         <v>15748</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9011</v>
+        <v>8340</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28340</v>
+        <v>27918</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008381467142070239</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004796071017274319</v>
+        <v>0.004438974282300388</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01508304944699736</v>
+        <v>0.01485851513992968</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>901891</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>853189</v>
+        <v>856374</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>952557</v>
+        <v>959432</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2593085746748097</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2453059838204963</v>
+        <v>0.246221837696195</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2738759648777191</v>
+        <v>0.2758527068937942</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2074</v>
@@ -4873,19 +4873,19 @@
         <v>1262219</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1212117</v>
+        <v>1216145</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1306358</v>
+        <v>1317157</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3424338591288739</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3288414318646214</v>
+        <v>0.3299343273605206</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.354408684715634</v>
+        <v>0.3573382674131302</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3135</v>
@@ -4894,19 +4894,19 @@
         <v>2164109</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2096292</v>
+        <v>2093279</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2242674</v>
+        <v>2238693</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3020777152417398</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2926114487569124</v>
+        <v>0.29219089053354</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3130442644330511</v>
+        <v>0.312488548640313</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>1369348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1310902</v>
+        <v>1309797</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1439684</v>
+        <v>1434919</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3937102630705064</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3769060462975625</v>
+        <v>0.3765882718065882</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4139330464277462</v>
+        <v>0.4125629172022965</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2061</v>
@@ -4944,19 +4944,19 @@
         <v>1448428</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1398051</v>
+        <v>1392313</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1504484</v>
+        <v>1502651</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3929516542878498</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3792844043504538</v>
+        <v>0.377727767151238</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4081592967815497</v>
+        <v>0.4076620013645276</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3368</v>
@@ -4965,19 +4965,19 @@
         <v>2817776</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2739881</v>
+        <v>2736736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2898818</v>
+        <v>2900086</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3933199480673898</v>
+        <v>0.39331994806739</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3824469066433973</v>
+        <v>0.3820079454833402</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4046322073439985</v>
+        <v>0.4048091773920758</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>945760</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>887375</v>
+        <v>884278</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1010497</v>
+        <v>999711</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2719215946049087</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2551349637727999</v>
+        <v>0.2542445971036709</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2905347427418386</v>
+        <v>0.2874336279574192</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1000</v>
@@ -5015,19 +5015,19 @@
         <v>833121</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>781899</v>
+        <v>781951</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>884301</v>
+        <v>881733</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2260217259541763</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2121255455843422</v>
+        <v>0.2121396313549813</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2399067187007955</v>
+        <v>0.2392099547623233</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1774</v>
@@ -5036,19 +5036,19 @@
         <v>1778880</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1699750</v>
+        <v>1704526</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1858795</v>
+        <v>1858254</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2483054596681119</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2372600577086639</v>
+        <v>0.237926650554679</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2594603184010342</v>
+        <v>0.259384844650538</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>225764</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>193351</v>
+        <v>190756</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>261912</v>
+        <v>264334</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.0649109930531428</v>
+        <v>0.06491099305314278</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05559156142462289</v>
+        <v>0.05484548107814475</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07530410511314443</v>
+        <v>0.07600042292604914</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>143</v>
@@ -5086,19 +5086,19 @@
         <v>129571</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>110810</v>
+        <v>108296</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>156693</v>
+        <v>156510</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03515188127720611</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03006221684575591</v>
+        <v>0.0293802346156807</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04251011115945839</v>
+        <v>0.04246047573394503</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>311</v>
@@ -5107,19 +5107,19 @@
         <v>355335</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>313943</v>
+        <v>315559</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>400246</v>
+        <v>403138</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.04959950698664559</v>
+        <v>0.04959950698664558</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04382184865835641</v>
+        <v>0.04404734157348425</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0558684546673611</v>
+        <v>0.05627215655400847</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>35297</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22596</v>
+        <v>23577</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50146</v>
+        <v>52180</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01014857459663239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006496641033472869</v>
+        <v>0.006778790807322747</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01441776481574988</v>
+        <v>0.01500255628300633</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -5157,19 +5157,19 @@
         <v>12683</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6456</v>
+        <v>6637</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23045</v>
+        <v>23773</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003440879351893815</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001751442239154238</v>
+        <v>0.001800511065570464</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.006251905878622618</v>
+        <v>0.006449492344853884</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -5178,19 +5178,19 @@
         <v>47981</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>33517</v>
+        <v>35157</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>65471</v>
+        <v>67731</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.00669737003611282</v>
+        <v>0.006697370036112821</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00467847880799006</v>
+        <v>0.004907382496215508</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009138768760478784</v>
+        <v>0.009454252307775064</v>
       </c>
     </row>
     <row r="33">
